--- a/Documentos/Planejamento_semanal_GOVagas.xlsx
+++ b/Documentos/Planejamento_semanal_GOVagas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\FrameworkOfCoders\FrameWorkOfCoders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Backupe\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEE5302-829A-4F4F-8C2D-2F14AC8EA299}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF40FD4-7CCB-45F0-B763-73C1DCBC86AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9915" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 0607-1007" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>PLANEJAMENTO SEMANAL - CONTROLE CLASSROOM</t>
   </si>
@@ -100,9 +100,6 @@
     <t>GABRIELA</t>
   </si>
   <si>
-    <t>FAZENDO</t>
-  </si>
-  <si>
     <t>CADASTRO (WEB)</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>DAVI</t>
   </si>
   <si>
-    <t>À FAZER</t>
-  </si>
-  <si>
     <t>DASHBOARD EMPRESA (WEB)</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>PUBLICAR VAGA (WEB)</t>
   </si>
   <si>
-    <t>HOME (MOBILE)</t>
-  </si>
-  <si>
     <t>LOGIN (MOBILE)</t>
   </si>
   <si>
@@ -179,6 +170,24 @@
   </si>
   <si>
     <t>RENAN</t>
+  </si>
+  <si>
+    <t>HOME(WEB)</t>
+  </si>
+  <si>
+    <t>SEPARAR AS TAREFAS NO TRELLO</t>
+  </si>
+  <si>
+    <t>SEPARAR AS TAREFAS NO AZURE</t>
+  </si>
+  <si>
+    <t>IDENTIDADE VISUAL PARA AS TELAS</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>NAVEGAÇÃO DAS TELAS</t>
   </si>
 </sst>
 </file>
@@ -358,6 +367,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,7 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,58 +602,63 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -659,64 +673,64 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="16">
         <v>44020</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="15">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="16">
         <v>44021</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="15">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="16">
         <v>44022</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -781,111 +795,195 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="M6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="R6" s="11"/>
       <c r="S6" s="6"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="M9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -893,27 +991,39 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="M10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -921,27 +1031,33 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -949,23 +1065,23 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -977,23 +1093,23 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1005,27 +1121,27 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1033,23 +1149,23 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="3"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1061,27 +1177,27 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1089,23 +1205,17 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="3"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1139,15 +1249,9 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1167,366 +1271,58 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="3"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="3"/>
+      <c r="B22" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="3"/>
+      <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="3"/>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="3"/>
+      <c r="B27" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="3"/>
+      <c r="B29" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="3"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A31" s="10" t="s">
         <v>20</v>
       </c>
     </row>
